--- a/WebContent/WEB-INF/student-template.xlsx
+++ b/WebContent/WEB-INF/student-template.xlsx
@@ -1,109 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JXX\Desktop\ziliao\毕业设计过程管理系统\项目资料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BE32F-CDE5-472D-9C1B-C0C910098A3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A878D-12F0-4EED-B94E-0AC6C6BE25BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>年制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证/护照号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>政治面貌</t>
-  </si>
-  <si>
-    <t>生源地</t>
-  </si>
-  <si>
-    <t>学生类型</t>
-  </si>
-  <si>
-    <t>招生类型</t>
-  </si>
-  <si>
-    <t>授课方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专业代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专业名称</t>
-  </si>
-  <si>
-    <t>自主专业名称</t>
-  </si>
-  <si>
-    <t>是否师范类</t>
-  </si>
-  <si>
-    <t>是否残疾</t>
-  </si>
-  <si>
-    <t>户口类型</t>
-  </si>
-  <si>
-    <t>异动类型</t>
-  </si>
-  <si>
-    <t>入学学历</t>
-  </si>
-  <si>
-    <t>招生方式</t>
-  </si>
-  <si>
-    <t>休退学原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,13 +82,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,17 +112,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -172,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,12 +176,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,12 +211,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -424,27 +386,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="25" max="25" width="21.21875" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625"/>
-    <col min="28" max="28" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,57 +444,10 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>